--- a/espidf-components/sensact-applicationmodel/apps/Aufbau der Statusmeldung 4 u16.xlsx
+++ b/espidf-components/sensact-applicationmodel/apps/Aufbau der Statusmeldung 4 u16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\sensact\espidf-components\sensact-applicationmodel\apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBEFF47-6344-4035-A0FF-D193A4A555F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECEBE4F-B686-4A0C-A0A1-BFAB91973350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{461599E1-9183-4578-B934-6ADA73D392F8}"/>
   </bookViews>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>u16[0]</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Sound</t>
   </si>
   <si>
-    <t>volune</t>
-  </si>
-  <si>
     <t>melody</t>
   </si>
   <si>
@@ -269,6 +266,15 @@
   </si>
   <si>
     <t>storedLevel</t>
+  </si>
+  <si>
+    <t>muted</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>isPlaying</t>
   </si>
 </sst>
 </file>
@@ -662,7 +668,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,10 +830,10 @@
         <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>35</v>
@@ -841,16 +847,16 @@
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/espidf-components/sensact-applicationmodel/apps/Aufbau der Statusmeldung 4 u16.xlsx
+++ b/espidf-components/sensact-applicationmodel/apps/Aufbau der Statusmeldung 4 u16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\sensact\espidf-components\sensact-applicationmodel\apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECEBE4F-B686-4A0C-A0A1-BFAB91973350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D60AF8B-39B4-4EBD-B3A5-63E9F0CDFA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{461599E1-9183-4578-B934-6ADA73D392F8}"/>
+    <workbookView xWindow="46650" yWindow="2480" windowWidth="28800" windowHeight="11900" xr2:uid="{461599E1-9183-4578-B934-6ADA73D392F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -61,8 +61,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-e.g. Auto, Manual, TimerControlled, DayMode, NightMode
-</t>
+e.g. Auto, Manual, TimerControlled, DayMode, NightMode.
+Vielleicht noch mit den oberen 4 Bits ein "Statusalter" implementieren. 0xF bedeutet "noch nie was gekommen und dann 1min, 10min, 100min...</t>
         </r>
       </text>
     </comment>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>u16[0]</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Idee</t>
   </si>
   <si>
-    <t>Mode</t>
-  </si>
-  <si>
     <t>CurrentValue</t>
   </si>
   <si>
@@ -262,9 +259,6 @@
     <t>melody</t>
   </si>
   <si>
-    <t>1/0 in Abhängigkeit des targetLevel</t>
-  </si>
-  <si>
     <t>storedLevel</t>
   </si>
   <si>
@@ -274,7 +268,16 @@
     <t>volume</t>
   </si>
   <si>
-    <t>isPlaying</t>
+    <t>SILENT, PLAY</t>
+  </si>
+  <si>
+    <t>OFF, ON</t>
+  </si>
+  <si>
+    <t>DEFINED</t>
+  </si>
+  <si>
+    <t>Mode, ein 0xFFFF signalisiert, dass noch kein Status verfügbar ist</t>
   </si>
 </sst>
 </file>
@@ -668,13 +671,13 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="1"/>
-    <col min="2" max="2" width="27.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
@@ -695,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -703,160 +706,160 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
